--- a/inst/extdata/GH-ZA-Allocation-sample.xlsx
+++ b/inst/extdata/GH-ZA-Allocation-sample.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Library/Containers/com.microsoft.Excel/Data/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD3F0D-1D8A-AF48-9DF7-CF04088BD0AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BECE6D-EC1B-6C4C-BC05-CE046953743B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Allocations" sheetId="1" r:id="rId1"/>
+    <sheet name="FU Allocations" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>

--- a/inst/extdata/GH-ZA-Allocation-sample.xlsx
+++ b/inst/extdata/GH-ZA-Allocation-sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BECE6D-EC1B-6C4C-BC05-CE046953743B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E7DE42-A679-B84D-88B9-6192B92283D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7278" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7279" uniqueCount="118">
   <si>
     <t>Country</t>
   </si>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
-      <selection activeCell="N690" sqref="N690:O691"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3146,6 +3146,9 @@
       <c r="I59" t="s">
         <v>85</v>
       </c>
+      <c r="J59" t="s">
+        <v>81</v>
+      </c>
       <c r="K59" t="s">
         <v>44</v>
       </c>
@@ -5130,6 +5133,9 @@
       <c r="N109">
         <v>15</v>
       </c>
+      <c r="O109">
+        <v>15</v>
+      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -5172,6 +5178,9 @@
       <c r="N110">
         <v>55</v>
       </c>
+      <c r="O110">
+        <v>55</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -5214,6 +5223,9 @@
       <c r="N111">
         <v>15</v>
       </c>
+      <c r="O111">
+        <v>15</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -5254,6 +5266,9 @@
       </c>
       <c r="M112" s="3"/>
       <c r="N112">
+        <v>15</v>
+      </c>
+      <c r="O112">
         <v>15</v>
       </c>
     </row>
@@ -6588,6 +6603,9 @@
       <c r="I146" t="s">
         <v>93</v>
       </c>
+      <c r="J146" t="s">
+        <v>112</v>
+      </c>
       <c r="K146" t="s">
         <v>51</v>
       </c>
@@ -15012,7 +15030,7 @@
         <v>55</v>
       </c>
       <c r="I360" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J360" t="s">
         <v>79</v>
@@ -15054,12 +15072,6 @@
       <c r="H361" t="s">
         <v>55</v>
       </c>
-      <c r="I361" t="s">
-        <v>80</v>
-      </c>
-      <c r="J361" t="s">
-        <v>81</v>
-      </c>
       <c r="K361" t="s">
         <v>69</v>
       </c>
@@ -15225,7 +15237,7 @@
       <c r="M365" s="3"/>
       <c r="N365" s="3"/>
       <c r="O365">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
@@ -15267,6 +15279,9 @@
       </c>
       <c r="M366" s="3"/>
       <c r="N366" s="3"/>
+      <c r="O366">
+        <v>50</v>
+      </c>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
@@ -21153,6 +21168,9 @@
       <c r="I516" t="s">
         <v>91</v>
       </c>
+      <c r="J516" t="s">
+        <v>112</v>
+      </c>
       <c r="K516" t="s">
         <v>75</v>
       </c>
@@ -26037,6 +26055,9 @@
       </c>
       <c r="M640" s="3"/>
       <c r="N640" s="3"/>
+      <c r="O640">
+        <v>50</v>
+      </c>
     </row>
     <row r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
@@ -26077,6 +26098,9 @@
       </c>
       <c r="M641" s="3"/>
       <c r="N641" s="3"/>
+      <c r="O641">
+        <v>50</v>
+      </c>
     </row>
     <row r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" t="s">

--- a/inst/extdata/GH-ZA-Allocation-sample.xlsx
+++ b/inst/extdata/GH-ZA-Allocation-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E7DE42-A679-B84D-88B9-6192B92283D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06AA538-01E1-1E48-842F-8516BEB53A56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FU Allocations" sheetId="1" r:id="rId1"/>
@@ -392,16 +392,19 @@
       <sz val="11"/>
       <color rgb="FF104273"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF918700"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -439,13 +442,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="N235" sqref="N235:O236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -937,11 +941,11 @@
         <v>26</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1134,11 +1138,11 @@
         <v>26</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9">
-        <v>50</v>
-      </c>
-      <c r="O9">
-        <v>50</v>
+      <c r="N9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1179,11 +1183,11 @@
         <v>27</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10">
-        <v>50</v>
-      </c>
-      <c r="O10">
-        <v>50</v>
+      <c r="N10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1339,8 +1343,8 @@
         <v>26</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14">
-        <v>95</v>
+      <c r="N14" s="6">
+        <v>0.95</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -1382,8 +1386,8 @@
         <v>27</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15">
-        <v>5</v>
+      <c r="N15" s="6">
+        <v>0.05</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -1541,8 +1545,8 @@
         <v>26</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19">
-        <v>30</v>
+      <c r="N19" s="6">
+        <v>0.3</v>
       </c>
       <c r="O19" s="3"/>
     </row>
@@ -1584,8 +1588,8 @@
         <v>27</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20">
-        <v>70</v>
+      <c r="N20" s="6">
+        <v>0.7</v>
       </c>
       <c r="O20" s="3"/>
     </row>
@@ -1743,8 +1747,8 @@
         <v>26</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24">
-        <v>10</v>
+      <c r="N24" s="6">
+        <v>0.1</v>
       </c>
       <c r="O24" s="3"/>
     </row>
@@ -1786,8 +1790,8 @@
         <v>27</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25">
-        <v>40</v>
+      <c r="N25" s="6">
+        <v>0.4</v>
       </c>
       <c r="O25" s="3"/>
     </row>
@@ -1829,8 +1833,8 @@
         <v>28</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26">
-        <v>50</v>
+      <c r="N26" s="6">
+        <v>0.5</v>
       </c>
       <c r="O26" s="3"/>
     </row>
@@ -1955,8 +1959,8 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29">
-        <v>100</v>
+      <c r="O29" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2148,8 +2152,8 @@
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34">
-        <v>100</v>
+      <c r="O34" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2344,11 +2348,11 @@
         <v>26</v>
       </c>
       <c r="M39" s="3"/>
-      <c r="N39">
-        <v>100</v>
-      </c>
-      <c r="O39">
-        <v>100</v>
+      <c r="N39" s="6">
+        <v>1</v>
+      </c>
+      <c r="O39" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2541,11 +2545,11 @@
         <v>26</v>
       </c>
       <c r="M44" s="3"/>
-      <c r="N44">
-        <v>100</v>
-      </c>
-      <c r="O44">
-        <v>100</v>
+      <c r="N44" s="6">
+        <v>1</v>
+      </c>
+      <c r="O44" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2738,11 +2742,11 @@
         <v>26</v>
       </c>
       <c r="M49" s="3"/>
-      <c r="N49">
-        <v>100</v>
-      </c>
-      <c r="O49">
-        <v>100</v>
+      <c r="N49" s="6">
+        <v>1</v>
+      </c>
+      <c r="O49" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -2935,11 +2939,11 @@
         <v>26</v>
       </c>
       <c r="M54" s="3"/>
-      <c r="N54">
-        <v>10</v>
-      </c>
-      <c r="O54">
-        <v>10</v>
+      <c r="N54" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O54" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -2980,11 +2984,11 @@
         <v>27</v>
       </c>
       <c r="M55" s="3"/>
-      <c r="N55">
-        <v>40</v>
-      </c>
-      <c r="O55">
-        <v>40</v>
+      <c r="N55" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -3025,11 +3029,11 @@
         <v>28</v>
       </c>
       <c r="M56" s="3"/>
-      <c r="N56">
-        <v>50</v>
-      </c>
-      <c r="O56">
-        <v>50</v>
+      <c r="N56" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -3156,11 +3160,11 @@
         <v>26</v>
       </c>
       <c r="M59" s="3"/>
-      <c r="N59">
-        <v>100</v>
-      </c>
-      <c r="O59">
-        <v>100</v>
+      <c r="N59" s="6">
+        <v>1</v>
+      </c>
+      <c r="O59" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3353,11 +3357,11 @@
         <v>26</v>
       </c>
       <c r="M64" s="3"/>
-      <c r="N64">
-        <v>50</v>
-      </c>
-      <c r="O64">
-        <v>50</v>
+      <c r="N64" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O64" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -3398,11 +3402,11 @@
         <v>27</v>
       </c>
       <c r="M65" s="3"/>
-      <c r="N65">
-        <v>50</v>
-      </c>
-      <c r="O65">
-        <v>50</v>
+      <c r="N65" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O65" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3562,11 +3566,11 @@
         <v>26</v>
       </c>
       <c r="M69" s="3"/>
-      <c r="N69">
-        <v>100</v>
-      </c>
-      <c r="O69">
-        <v>100</v>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3755,8 +3759,8 @@
         <v>26</v>
       </c>
       <c r="M74" s="3"/>
-      <c r="N74">
-        <v>100</v>
+      <c r="N74" s="6">
+        <v>1</v>
       </c>
       <c r="O74" s="3"/>
     </row>
@@ -3952,11 +3956,11 @@
         <v>26</v>
       </c>
       <c r="M79" s="3"/>
-      <c r="N79">
-        <v>100</v>
-      </c>
-      <c r="O79">
-        <v>100</v>
+      <c r="N79" s="6">
+        <v>1</v>
+      </c>
+      <c r="O79" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4145,8 +4149,8 @@
         <v>26</v>
       </c>
       <c r="M84" s="3"/>
-      <c r="N84">
-        <v>100</v>
+      <c r="N84" s="6">
+        <v>1</v>
       </c>
       <c r="O84" s="3"/>
     </row>
@@ -4342,11 +4346,11 @@
         <v>26</v>
       </c>
       <c r="M89" s="3"/>
-      <c r="N89">
-        <v>100</v>
-      </c>
-      <c r="O89">
-        <v>100</v>
+      <c r="N89" s="6">
+        <v>1</v>
+      </c>
+      <c r="O89" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -4539,11 +4543,11 @@
         <v>26</v>
       </c>
       <c r="M94" s="3"/>
-      <c r="N94">
-        <v>100</v>
-      </c>
-      <c r="O94">
-        <v>100</v>
+      <c r="N94" s="6">
+        <v>1</v>
+      </c>
+      <c r="O94" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -4736,11 +4740,11 @@
         <v>26</v>
       </c>
       <c r="M99" s="3"/>
-      <c r="N99">
-        <v>100</v>
-      </c>
-      <c r="O99">
-        <v>100</v>
+      <c r="N99" s="6">
+        <v>1</v>
+      </c>
+      <c r="O99" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
@@ -4933,11 +4937,11 @@
         <v>26</v>
       </c>
       <c r="M104" s="3"/>
-      <c r="N104">
-        <v>100</v>
-      </c>
-      <c r="O104">
-        <v>100</v>
+      <c r="N104" s="6">
+        <v>1</v>
+      </c>
+      <c r="O104" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -5130,11 +5134,11 @@
         <v>26</v>
       </c>
       <c r="M109" s="3"/>
-      <c r="N109">
-        <v>15</v>
-      </c>
-      <c r="O109">
-        <v>15</v>
+      <c r="N109" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O109" s="6">
+        <v>0.15</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
@@ -5175,11 +5179,11 @@
         <v>27</v>
       </c>
       <c r="M110" s="3"/>
-      <c r="N110">
-        <v>55</v>
-      </c>
-      <c r="O110">
-        <v>55</v>
+      <c r="N110" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O110" s="6">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
@@ -5220,11 +5224,11 @@
         <v>28</v>
       </c>
       <c r="M111" s="3"/>
-      <c r="N111">
-        <v>15</v>
-      </c>
-      <c r="O111">
-        <v>15</v>
+      <c r="N111" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O111" s="6">
+        <v>0.15</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
@@ -5265,11 +5269,11 @@
         <v>95</v>
       </c>
       <c r="M112" s="3"/>
-      <c r="N112">
-        <v>15</v>
-      </c>
-      <c r="O112">
-        <v>15</v>
+      <c r="N112" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="O112" s="6">
+        <v>0.15</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
@@ -5393,8 +5397,8 @@
       </c>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
-      <c r="O115">
-        <v>100</v>
+      <c r="O115" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
@@ -5585,8 +5589,8 @@
         <v>26</v>
       </c>
       <c r="M120" s="3"/>
-      <c r="N120">
-        <v>100</v>
+      <c r="N120" s="6">
+        <v>1</v>
       </c>
       <c r="O120" s="3"/>
     </row>
@@ -5779,8 +5783,8 @@
       </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
-      <c r="O125">
-        <v>100</v>
+      <c r="O125" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
@@ -5975,11 +5979,11 @@
         <v>26</v>
       </c>
       <c r="M130" s="3"/>
-      <c r="N130">
-        <v>100</v>
-      </c>
-      <c r="O130">
-        <v>100</v>
+      <c r="N130" s="6">
+        <v>1</v>
+      </c>
+      <c r="O130" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -6172,11 +6176,11 @@
         <v>26</v>
       </c>
       <c r="M135" s="3"/>
-      <c r="N135">
-        <v>50</v>
-      </c>
-      <c r="O135">
-        <v>50</v>
+      <c r="N135" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O135" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -6217,11 +6221,11 @@
         <v>27</v>
       </c>
       <c r="M136" s="3"/>
-      <c r="N136">
-        <v>50</v>
-      </c>
-      <c r="O136">
-        <v>50</v>
+      <c r="N136" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O136" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -6378,8 +6382,8 @@
       </c>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
-      <c r="O140">
-        <v>100</v>
+      <c r="O140" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
@@ -6570,8 +6574,8 @@
         <v>26</v>
       </c>
       <c r="M145" s="3"/>
-      <c r="N145">
-        <v>50</v>
+      <c r="N145" s="6">
+        <v>0.5</v>
       </c>
       <c r="O145" s="3"/>
     </row>
@@ -6613,8 +6617,8 @@
         <v>27</v>
       </c>
       <c r="M146" s="3"/>
-      <c r="N146">
-        <v>50</v>
+      <c r="N146" s="6">
+        <v>0.5</v>
       </c>
       <c r="O146" s="3"/>
     </row>
@@ -6773,8 +6777,8 @@
       </c>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
-      <c r="O150">
-        <v>100</v>
+      <c r="O150" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
@@ -6969,11 +6973,11 @@
         <v>26</v>
       </c>
       <c r="M155" s="3"/>
-      <c r="N155">
-        <v>10</v>
-      </c>
-      <c r="O155">
-        <v>10</v>
+      <c r="N155" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O155" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
@@ -7014,11 +7018,11 @@
         <v>27</v>
       </c>
       <c r="M156" s="3"/>
-      <c r="N156">
-        <v>90</v>
-      </c>
-      <c r="O156">
-        <v>90</v>
+      <c r="N156" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O156" s="6">
+        <v>0.9</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
@@ -7175,8 +7179,8 @@
       </c>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
-      <c r="O160">
-        <v>50</v>
+      <c r="O160" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
@@ -7218,8 +7222,8 @@
       </c>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
-      <c r="O161">
-        <v>50</v>
+      <c r="O161" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
@@ -7377,8 +7381,8 @@
       </c>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
-      <c r="O165">
-        <v>100</v>
+      <c r="O165" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
@@ -7569,8 +7573,8 @@
         <v>26</v>
       </c>
       <c r="M170" s="3"/>
-      <c r="N170">
-        <v>100</v>
+      <c r="N170" s="6">
+        <v>1</v>
       </c>
       <c r="O170" s="3"/>
     </row>
@@ -7763,8 +7767,8 @@
       </c>
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
-      <c r="O175">
-        <v>30</v>
+      <c r="O175" s="6">
+        <v>0.3</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
@@ -7806,8 +7810,8 @@
       </c>
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
-      <c r="O176">
-        <v>70</v>
+      <c r="O176" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
@@ -7968,11 +7972,11 @@
         <v>26</v>
       </c>
       <c r="M180" s="3"/>
-      <c r="N180">
-        <v>100</v>
-      </c>
-      <c r="O180">
-        <v>100</v>
+      <c r="N180" s="6">
+        <v>1</v>
+      </c>
+      <c r="O180" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
@@ -8161,8 +8165,8 @@
         <v>26</v>
       </c>
       <c r="M185" s="3"/>
-      <c r="N185">
-        <v>100</v>
+      <c r="N185" s="6">
+        <v>1</v>
       </c>
       <c r="O185" s="3"/>
     </row>
@@ -8355,8 +8359,8 @@
       </c>
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
-      <c r="O190">
-        <v>100</v>
+      <c r="O190" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
@@ -8551,11 +8555,11 @@
         <v>26</v>
       </c>
       <c r="M195" s="3"/>
-      <c r="N195">
-        <v>100</v>
-      </c>
-      <c r="O195">
-        <v>100</v>
+      <c r="N195" s="6">
+        <v>1</v>
+      </c>
+      <c r="O195" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
@@ -8748,11 +8752,11 @@
         <v>26</v>
       </c>
       <c r="M200" s="3"/>
-      <c r="N200">
-        <v>100</v>
-      </c>
-      <c r="O200">
-        <v>100</v>
+      <c r="N200" s="6">
+        <v>1</v>
+      </c>
+      <c r="O200" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.2">
@@ -8945,11 +8949,11 @@
         <v>26</v>
       </c>
       <c r="M205" s="3"/>
-      <c r="N205">
-        <v>100</v>
-      </c>
-      <c r="O205">
-        <v>100</v>
+      <c r="N205" s="6">
+        <v>1</v>
+      </c>
+      <c r="O205" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
@@ -9142,11 +9146,11 @@
         <v>26</v>
       </c>
       <c r="M210" s="3"/>
-      <c r="N210">
-        <v>100</v>
-      </c>
-      <c r="O210">
-        <v>100</v>
+      <c r="N210" s="6">
+        <v>1</v>
+      </c>
+      <c r="O210" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
@@ -9339,11 +9343,11 @@
         <v>26</v>
       </c>
       <c r="M215" s="3"/>
-      <c r="N215">
-        <v>10</v>
-      </c>
-      <c r="O215">
-        <v>10</v>
+      <c r="N215" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O215" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
@@ -9384,11 +9388,11 @@
         <v>27</v>
       </c>
       <c r="M216" s="3"/>
-      <c r="N216">
-        <v>10</v>
-      </c>
-      <c r="O216">
-        <v>10</v>
+      <c r="N216" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O216" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
@@ -9429,11 +9433,11 @@
         <v>28</v>
       </c>
       <c r="M217" s="3"/>
-      <c r="N217">
-        <v>80</v>
-      </c>
-      <c r="O217">
-        <v>80</v>
+      <c r="N217" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O217" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
@@ -9557,8 +9561,8 @@
       </c>
       <c r="M220" s="3"/>
       <c r="N220" s="3"/>
-      <c r="O220">
-        <v>40</v>
+      <c r="O220" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.2">
@@ -9600,8 +9604,8 @@
       </c>
       <c r="M221" s="3"/>
       <c r="N221" s="3"/>
-      <c r="O221">
-        <v>60</v>
+      <c r="O221" s="6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.2">
@@ -9762,11 +9766,11 @@
         <v>26</v>
       </c>
       <c r="M225" s="3"/>
-      <c r="N225">
-        <v>100</v>
-      </c>
-      <c r="O225">
-        <v>100</v>
+      <c r="N225" s="6">
+        <v>1</v>
+      </c>
+      <c r="O225" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.2">
@@ -9955,8 +9959,8 @@
         <v>26</v>
       </c>
       <c r="M230" s="3"/>
-      <c r="N230">
-        <v>100</v>
+      <c r="N230" s="6">
+        <v>1</v>
       </c>
       <c r="O230" s="3"/>
     </row>
@@ -10152,11 +10156,11 @@
         <v>26</v>
       </c>
       <c r="M235" s="3"/>
-      <c r="N235">
-        <v>20</v>
-      </c>
-      <c r="O235">
-        <v>20</v>
+      <c r="N235" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O235" s="6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
@@ -10197,11 +10201,11 @@
         <v>27</v>
       </c>
       <c r="M236" s="3"/>
-      <c r="N236">
-        <v>80</v>
-      </c>
-      <c r="O236">
-        <v>80</v>
+      <c r="N236" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O236" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.2">
@@ -10357,8 +10361,8 @@
         <v>26</v>
       </c>
       <c r="M240" s="3"/>
-      <c r="N240">
-        <v>100</v>
+      <c r="N240" s="6">
+        <v>1</v>
       </c>
       <c r="O240" s="3"/>
     </row>
@@ -10551,8 +10555,8 @@
       </c>
       <c r="M245" s="3"/>
       <c r="N245" s="3"/>
-      <c r="O245">
-        <v>100</v>
+      <c r="O245" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.2">
@@ -10744,8 +10748,8 @@
       </c>
       <c r="M250" s="3"/>
       <c r="N250" s="3"/>
-      <c r="O250">
-        <v>100</v>
+      <c r="O250" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
@@ -10936,8 +10940,8 @@
         <v>26</v>
       </c>
       <c r="M255" s="3"/>
-      <c r="N255">
-        <v>100</v>
+      <c r="N255" s="6">
+        <v>1</v>
       </c>
       <c r="O255" s="3"/>
     </row>
@@ -11130,8 +11134,8 @@
       </c>
       <c r="M260" s="3"/>
       <c r="N260" s="3"/>
-      <c r="O260">
-        <v>100</v>
+      <c r="O260" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.2">
@@ -11326,11 +11330,11 @@
         <v>26</v>
       </c>
       <c r="M265" s="3"/>
-      <c r="N265">
-        <v>100</v>
-      </c>
-      <c r="O265">
-        <v>100</v>
+      <c r="N265" s="6">
+        <v>1</v>
+      </c>
+      <c r="O265" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.2">
@@ -11520,8 +11524,8 @@
       </c>
       <c r="M270" s="3"/>
       <c r="N270" s="3"/>
-      <c r="O270">
-        <v>100</v>
+      <c r="O270" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.2">
@@ -11713,8 +11717,8 @@
       </c>
       <c r="M275" s="3"/>
       <c r="N275" s="3"/>
-      <c r="O275">
-        <v>100</v>
+      <c r="O275" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
@@ -11906,8 +11910,8 @@
       </c>
       <c r="M280" s="3"/>
       <c r="N280" s="3"/>
-      <c r="O280">
-        <v>80</v>
+      <c r="O280" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
@@ -11949,8 +11953,8 @@
       </c>
       <c r="M281" s="3"/>
       <c r="N281" s="3"/>
-      <c r="O281">
-        <v>20</v>
+      <c r="O281" s="6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
@@ -12111,11 +12115,11 @@
         <v>26</v>
       </c>
       <c r="M285" s="3"/>
-      <c r="N285">
-        <v>100</v>
-      </c>
-      <c r="O285">
-        <v>100</v>
+      <c r="N285" s="6">
+        <v>1</v>
+      </c>
+      <c r="O285" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.2">
@@ -12305,8 +12309,8 @@
       </c>
       <c r="M290" s="3"/>
       <c r="N290" s="3"/>
-      <c r="O290">
-        <v>100</v>
+      <c r="O290" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.2">
@@ -12497,8 +12501,8 @@
         <v>26</v>
       </c>
       <c r="M295" s="3"/>
-      <c r="N295">
-        <v>100</v>
+      <c r="N295" s="6">
+        <v>1</v>
       </c>
       <c r="O295" s="3"/>
     </row>
@@ -12691,8 +12695,8 @@
       </c>
       <c r="M300" s="3"/>
       <c r="N300" s="3"/>
-      <c r="O300">
-        <v>100</v>
+      <c r="O300" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.2">
@@ -12884,8 +12888,8 @@
       </c>
       <c r="M305" s="3"/>
       <c r="N305" s="3"/>
-      <c r="O305">
-        <v>100</v>
+      <c r="O305" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
@@ -13077,8 +13081,8 @@
       </c>
       <c r="M310" s="3"/>
       <c r="N310" s="3"/>
-      <c r="O310">
-        <v>100</v>
+      <c r="O310" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
@@ -13270,8 +13274,8 @@
       </c>
       <c r="M315" s="3"/>
       <c r="N315" s="3"/>
-      <c r="O315">
-        <v>100</v>
+      <c r="O315" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.2">
@@ -13463,8 +13467,8 @@
       </c>
       <c r="M320" s="3"/>
       <c r="N320" s="3"/>
-      <c r="O320">
-        <v>100</v>
+      <c r="O320" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
@@ -13656,8 +13660,8 @@
       </c>
       <c r="M325" s="3"/>
       <c r="N325" s="3"/>
-      <c r="O325">
-        <v>100</v>
+      <c r="O325" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
@@ -13849,8 +13853,8 @@
       </c>
       <c r="M330" s="3"/>
       <c r="N330" s="3"/>
-      <c r="O330">
-        <v>100</v>
+      <c r="O330" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
@@ -14045,11 +14049,11 @@
         <v>26</v>
       </c>
       <c r="M335" s="3"/>
-      <c r="N335">
-        <v>100</v>
-      </c>
-      <c r="O335">
-        <v>100</v>
+      <c r="N335" s="6">
+        <v>1</v>
+      </c>
+      <c r="O335" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
@@ -14239,8 +14243,8 @@
       </c>
       <c r="M340" s="3"/>
       <c r="N340" s="3"/>
-      <c r="O340">
-        <v>100</v>
+      <c r="O340" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
@@ -14435,11 +14439,11 @@
         <v>26</v>
       </c>
       <c r="M345" s="3"/>
-      <c r="N345">
-        <v>70</v>
-      </c>
-      <c r="O345">
-        <v>70</v>
+      <c r="N345" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O345" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
@@ -14480,11 +14484,11 @@
         <v>27</v>
       </c>
       <c r="M346" s="3"/>
-      <c r="N346">
-        <v>30</v>
-      </c>
-      <c r="O346">
-        <v>30</v>
+      <c r="N346" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O346" s="6">
+        <v>0.3</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
@@ -14641,8 +14645,8 @@
       </c>
       <c r="M350" s="3"/>
       <c r="N350" s="3"/>
-      <c r="O350">
-        <v>100</v>
+      <c r="O350" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
@@ -14837,11 +14841,11 @@
         <v>26</v>
       </c>
       <c r="M355" s="3"/>
-      <c r="N355">
-        <v>30</v>
-      </c>
-      <c r="O355">
-        <v>20</v>
+      <c r="N355" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O355" s="6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
@@ -14882,11 +14886,11 @@
         <v>27</v>
       </c>
       <c r="M356" s="3"/>
-      <c r="N356">
-        <v>70</v>
-      </c>
-      <c r="O356">
-        <v>80</v>
+      <c r="N356" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O356" s="6">
+        <v>0.8</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
@@ -15043,8 +15047,8 @@
       </c>
       <c r="M360" s="3"/>
       <c r="N360" s="3"/>
-      <c r="O360">
-        <v>100</v>
+      <c r="O360" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
@@ -15236,8 +15240,8 @@
       </c>
       <c r="M365" s="3"/>
       <c r="N365" s="3"/>
-      <c r="O365">
-        <v>50</v>
+      <c r="O365" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
@@ -15279,8 +15283,8 @@
       </c>
       <c r="M366" s="3"/>
       <c r="N366" s="3"/>
-      <c r="O366">
-        <v>50</v>
+      <c r="O366" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
@@ -15438,8 +15442,8 @@
       </c>
       <c r="M370" s="3"/>
       <c r="N370" s="3"/>
-      <c r="O370">
-        <v>100</v>
+      <c r="O370" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.2">
@@ -15631,8 +15635,8 @@
       </c>
       <c r="M375" s="3"/>
       <c r="N375" s="3"/>
-      <c r="O375">
-        <v>100</v>
+      <c r="O375" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
@@ -15824,8 +15828,8 @@
       </c>
       <c r="M380" s="3"/>
       <c r="N380" s="3"/>
-      <c r="O380">
-        <v>100</v>
+      <c r="O380" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
@@ -16017,8 +16021,8 @@
       </c>
       <c r="M385" s="3"/>
       <c r="N385" s="3"/>
-      <c r="O385">
-        <v>100</v>
+      <c r="O385" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.2">
@@ -16210,8 +16214,8 @@
       </c>
       <c r="M390" s="3"/>
       <c r="N390" s="3"/>
-      <c r="O390">
-        <v>100</v>
+      <c r="O390" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.2">
@@ -16406,11 +16410,11 @@
         <v>26</v>
       </c>
       <c r="M395" s="3"/>
-      <c r="N395">
-        <v>30</v>
-      </c>
-      <c r="O395">
-        <v>40</v>
+      <c r="N395" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O395" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
@@ -16451,11 +16455,11 @@
         <v>27</v>
       </c>
       <c r="M396" s="3"/>
-      <c r="N396">
-        <v>70</v>
-      </c>
-      <c r="O396">
-        <v>60</v>
+      <c r="N396" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O396" s="6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
@@ -16612,8 +16616,8 @@
       </c>
       <c r="M400" s="3"/>
       <c r="N400" s="3"/>
-      <c r="O400">
-        <v>70</v>
+      <c r="O400" s="6">
+        <v>0.7</v>
       </c>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.2">
@@ -16655,8 +16659,8 @@
       </c>
       <c r="M401" s="3"/>
       <c r="N401" s="3"/>
-      <c r="O401">
-        <v>30</v>
+      <c r="O401" s="6">
+        <v>0.3</v>
       </c>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.2">
@@ -16813,8 +16817,8 @@
         <v>26</v>
       </c>
       <c r="M405" s="3"/>
-      <c r="N405">
-        <v>100</v>
+      <c r="N405" s="6">
+        <v>1</v>
       </c>
       <c r="O405" s="3"/>
     </row>
@@ -17007,8 +17011,8 @@
       </c>
       <c r="M410" s="3"/>
       <c r="N410" s="3"/>
-      <c r="O410">
-        <v>100</v>
+      <c r="O410" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.2">
@@ -17200,8 +17204,8 @@
       </c>
       <c r="M415" s="3"/>
       <c r="N415" s="3"/>
-      <c r="O415">
-        <v>100</v>
+      <c r="O415" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.2">
@@ -17393,8 +17397,8 @@
       </c>
       <c r="M420" s="3"/>
       <c r="N420" s="3"/>
-      <c r="O420">
-        <v>100</v>
+      <c r="O420" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.2">
@@ -17585,8 +17589,8 @@
         <v>26</v>
       </c>
       <c r="M425" s="3"/>
-      <c r="N425">
-        <v>100</v>
+      <c r="N425" s="6">
+        <v>1</v>
       </c>
       <c r="O425" s="3"/>
     </row>
@@ -17782,11 +17786,11 @@
         <v>26</v>
       </c>
       <c r="M430" s="3"/>
-      <c r="N430">
-        <v>100</v>
-      </c>
-      <c r="O430">
-        <v>100</v>
+      <c r="N430" s="6">
+        <v>1</v>
+      </c>
+      <c r="O430" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.2">
@@ -17975,8 +17979,8 @@
         <v>26</v>
       </c>
       <c r="M435" s="3"/>
-      <c r="N435">
-        <v>100</v>
+      <c r="N435" s="6">
+        <v>1</v>
       </c>
       <c r="O435" s="3"/>
     </row>
@@ -18172,11 +18176,11 @@
         <v>26</v>
       </c>
       <c r="M440" s="3"/>
-      <c r="N440">
-        <v>100</v>
-      </c>
-      <c r="O440">
-        <v>100</v>
+      <c r="N440" s="6">
+        <v>1</v>
+      </c>
+      <c r="O440" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.2">
@@ -18369,11 +18373,11 @@
         <v>26</v>
       </c>
       <c r="M445" s="3"/>
-      <c r="N445">
-        <v>50</v>
-      </c>
-      <c r="O445">
-        <v>50</v>
+      <c r="N445" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O445" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.2">
@@ -18414,11 +18418,11 @@
         <v>27</v>
       </c>
       <c r="M446" s="3"/>
-      <c r="N446">
-        <v>50</v>
-      </c>
-      <c r="O446">
-        <v>50</v>
+      <c r="N446" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O446" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.2">
@@ -18578,11 +18582,11 @@
         <v>26</v>
       </c>
       <c r="M450" s="3"/>
-      <c r="N450">
-        <v>100</v>
-      </c>
-      <c r="O450">
-        <v>100</v>
+      <c r="N450" s="6">
+        <v>1</v>
+      </c>
+      <c r="O450" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.2">
@@ -18775,11 +18779,11 @@
         <v>26</v>
       </c>
       <c r="M455" s="3"/>
-      <c r="N455">
-        <v>50</v>
-      </c>
-      <c r="O455">
-        <v>50</v>
+      <c r="N455" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O455" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.2">
@@ -18820,11 +18824,11 @@
         <v>27</v>
       </c>
       <c r="M456" s="3"/>
-      <c r="N456">
-        <v>50</v>
-      </c>
-      <c r="O456">
-        <v>50</v>
+      <c r="N456" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O456" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.2">
@@ -18984,11 +18988,11 @@
         <v>26</v>
       </c>
       <c r="M460" s="3"/>
-      <c r="N460">
-        <v>50</v>
-      </c>
-      <c r="O460">
-        <v>50</v>
+      <c r="N460" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O460" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.2">
@@ -19029,11 +19033,11 @@
         <v>27</v>
       </c>
       <c r="M461" s="3"/>
-      <c r="N461">
-        <v>50</v>
-      </c>
-      <c r="O461">
-        <v>50</v>
+      <c r="N461" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O461" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.2">
@@ -19190,8 +19194,8 @@
       </c>
       <c r="M465" s="3"/>
       <c r="N465" s="3"/>
-      <c r="O465">
-        <v>100</v>
+      <c r="O465" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.2">
@@ -19383,8 +19387,8 @@
       </c>
       <c r="M470" s="3"/>
       <c r="N470" s="3"/>
-      <c r="O470">
-        <v>100</v>
+      <c r="O470" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.2">
@@ -19575,8 +19579,8 @@
         <v>26</v>
       </c>
       <c r="M475" s="3"/>
-      <c r="N475">
-        <v>100</v>
+      <c r="N475" s="6">
+        <v>1</v>
       </c>
       <c r="O475" s="3"/>
     </row>
@@ -19769,8 +19773,8 @@
       </c>
       <c r="M480" s="3"/>
       <c r="N480" s="3"/>
-      <c r="O480">
-        <v>100</v>
+      <c r="O480" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.2">
@@ -19962,8 +19966,8 @@
       </c>
       <c r="M485" s="3"/>
       <c r="N485" s="3"/>
-      <c r="O485">
-        <v>100</v>
+      <c r="O485" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.2">
@@ -20155,8 +20159,8 @@
       </c>
       <c r="M490" s="3"/>
       <c r="N490" s="3"/>
-      <c r="O490">
-        <v>100</v>
+      <c r="O490" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.2">
@@ -20348,8 +20352,8 @@
       </c>
       <c r="M495" s="3"/>
       <c r="N495" s="3"/>
-      <c r="O495">
-        <v>100</v>
+      <c r="O495" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.2">
@@ -20544,11 +20548,11 @@
         <v>26</v>
       </c>
       <c r="M500" s="3"/>
-      <c r="N500">
-        <v>50</v>
-      </c>
-      <c r="O500">
-        <v>50</v>
+      <c r="N500" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O500" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.2">
@@ -20589,11 +20593,11 @@
         <v>27</v>
       </c>
       <c r="M501" s="3"/>
-      <c r="N501">
-        <v>50</v>
-      </c>
-      <c r="O501">
-        <v>50</v>
+      <c r="N501" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O501" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
@@ -20750,8 +20754,8 @@
       </c>
       <c r="M505" s="3"/>
       <c r="N505" s="3"/>
-      <c r="O505">
-        <v>100</v>
+      <c r="O505" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
@@ -20943,8 +20947,8 @@
       </c>
       <c r="M510" s="3"/>
       <c r="N510" s="3"/>
-      <c r="O510">
-        <v>100</v>
+      <c r="O510" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
@@ -21136,8 +21140,8 @@
       </c>
       <c r="M515" s="3"/>
       <c r="N515" s="3"/>
-      <c r="O515">
-        <v>40</v>
+      <c r="O515" s="6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="516" spans="1:15" x14ac:dyDescent="0.2">
@@ -21179,8 +21183,8 @@
       </c>
       <c r="M516" s="3"/>
       <c r="N516" s="3"/>
-      <c r="O516">
-        <v>60</v>
+      <c r="O516" s="6">
+        <v>0.6</v>
       </c>
     </row>
     <row r="517" spans="1:15" x14ac:dyDescent="0.2">
@@ -21341,11 +21345,11 @@
         <v>26</v>
       </c>
       <c r="M520" s="3"/>
-      <c r="N520">
-        <v>100</v>
-      </c>
-      <c r="O520">
-        <v>100</v>
+      <c r="N520" s="6">
+        <v>1</v>
+      </c>
+      <c r="O520" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.2">
@@ -21534,8 +21538,8 @@
         <v>26</v>
       </c>
       <c r="M525" s="3"/>
-      <c r="N525">
-        <v>100</v>
+      <c r="N525" s="6">
+        <v>1</v>
       </c>
       <c r="O525" s="3"/>
     </row>
@@ -21728,8 +21732,8 @@
       </c>
       <c r="M530" s="3"/>
       <c r="N530" s="3"/>
-      <c r="O530">
-        <v>100</v>
+      <c r="O530" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:15" x14ac:dyDescent="0.2">
@@ -21924,11 +21928,11 @@
         <v>26</v>
       </c>
       <c r="M535" s="3"/>
-      <c r="N535">
-        <v>100</v>
-      </c>
-      <c r="O535">
-        <v>100</v>
+      <c r="N535" s="6">
+        <v>1</v>
+      </c>
+      <c r="O535" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:15" x14ac:dyDescent="0.2">
@@ -22118,8 +22122,8 @@
       </c>
       <c r="M540" s="3"/>
       <c r="N540" s="3"/>
-      <c r="O540">
-        <v>50</v>
+      <c r="O540" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="541" spans="1:15" x14ac:dyDescent="0.2">
@@ -22161,8 +22165,8 @@
       </c>
       <c r="M541" s="3"/>
       <c r="N541" s="3"/>
-      <c r="O541">
-        <v>50</v>
+      <c r="O541" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="542" spans="1:15" x14ac:dyDescent="0.2">
@@ -22320,8 +22324,8 @@
       </c>
       <c r="M545" s="3"/>
       <c r="N545" s="3"/>
-      <c r="O545">
-        <v>100</v>
+      <c r="O545" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:15" x14ac:dyDescent="0.2">
@@ -22513,8 +22517,8 @@
       </c>
       <c r="M550" s="3"/>
       <c r="N550" s="3"/>
-      <c r="O550">
-        <v>100</v>
+      <c r="O550" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:15" x14ac:dyDescent="0.2">
@@ -22706,8 +22710,8 @@
       </c>
       <c r="M555" s="3"/>
       <c r="N555" s="3"/>
-      <c r="O555">
-        <v>100</v>
+      <c r="O555" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:15" x14ac:dyDescent="0.2">
@@ -22899,8 +22903,8 @@
       </c>
       <c r="M560" s="3"/>
       <c r="N560" s="3"/>
-      <c r="O560">
-        <v>100</v>
+      <c r="O560" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.2">
@@ -23095,11 +23099,11 @@
         <v>26</v>
       </c>
       <c r="M565" s="3"/>
-      <c r="N565">
-        <v>50</v>
-      </c>
-      <c r="O565">
-        <v>50</v>
+      <c r="N565" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O565" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
@@ -23140,11 +23144,11 @@
         <v>27</v>
       </c>
       <c r="M566" s="3"/>
-      <c r="N566">
-        <v>50</v>
-      </c>
-      <c r="O566">
-        <v>50</v>
+      <c r="N566" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O566" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="567" spans="1:15" x14ac:dyDescent="0.2">
@@ -23304,11 +23308,11 @@
         <v>26</v>
       </c>
       <c r="M570" s="3"/>
-      <c r="N570">
-        <v>100</v>
-      </c>
-      <c r="O570">
-        <v>100</v>
+      <c r="N570" s="6">
+        <v>1</v>
+      </c>
+      <c r="O570" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.2">
@@ -23501,11 +23505,11 @@
         <v>26</v>
       </c>
       <c r="M575" s="3"/>
-      <c r="N575">
-        <v>20</v>
-      </c>
-      <c r="O575">
-        <v>20</v>
+      <c r="N575" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O575" s="6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="576" spans="1:15" x14ac:dyDescent="0.2">
@@ -23546,11 +23550,11 @@
         <v>27</v>
       </c>
       <c r="M576" s="3"/>
-      <c r="N576">
-        <v>30</v>
-      </c>
-      <c r="O576">
-        <v>30</v>
+      <c r="N576" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O576" s="6">
+        <v>0.3</v>
       </c>
     </row>
     <row r="577" spans="1:15" x14ac:dyDescent="0.2">
@@ -23591,11 +23595,11 @@
         <v>28</v>
       </c>
       <c r="M577" s="3"/>
-      <c r="N577">
-        <v>50</v>
-      </c>
-      <c r="O577">
-        <v>50</v>
+      <c r="N577" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O577" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="578" spans="1:15" x14ac:dyDescent="0.2">
@@ -23718,8 +23722,8 @@
         <v>26</v>
       </c>
       <c r="M580" s="3"/>
-      <c r="N580">
-        <v>100</v>
+      <c r="N580" s="6">
+        <v>1</v>
       </c>
       <c r="O580" s="3"/>
     </row>
@@ -23912,8 +23916,8 @@
       </c>
       <c r="M585" s="3"/>
       <c r="N585" s="3"/>
-      <c r="O585">
-        <v>100</v>
+      <c r="O585" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:15" x14ac:dyDescent="0.2">
@@ -24108,11 +24112,11 @@
         <v>26</v>
       </c>
       <c r="M590" s="3"/>
-      <c r="N590">
-        <v>100</v>
-      </c>
-      <c r="O590">
-        <v>100</v>
+      <c r="N590" s="6">
+        <v>1</v>
+      </c>
+      <c r="O590" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.2">
@@ -24302,8 +24306,8 @@
       </c>
       <c r="M595" s="3"/>
       <c r="N595" s="3"/>
-      <c r="O595">
-        <v>100</v>
+      <c r="O595" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:15" x14ac:dyDescent="0.2">
@@ -24495,8 +24499,8 @@
       </c>
       <c r="M600" s="3"/>
       <c r="N600" s="3"/>
-      <c r="O600">
-        <v>100</v>
+      <c r="O600" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:15" x14ac:dyDescent="0.2">
@@ -24688,8 +24692,8 @@
       </c>
       <c r="M605" s="3"/>
       <c r="N605" s="3"/>
-      <c r="O605">
-        <v>100</v>
+      <c r="O605" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:15" x14ac:dyDescent="0.2">
@@ -24881,8 +24885,8 @@
       </c>
       <c r="M610" s="3"/>
       <c r="N610" s="3"/>
-      <c r="O610">
-        <v>100</v>
+      <c r="O610" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:15" x14ac:dyDescent="0.2">
@@ -25074,8 +25078,8 @@
       </c>
       <c r="M615" s="3"/>
       <c r="N615" s="3"/>
-      <c r="O615">
-        <v>100</v>
+      <c r="O615" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:15" x14ac:dyDescent="0.2">
@@ -25270,11 +25274,11 @@
         <v>26</v>
       </c>
       <c r="M620" s="3"/>
-      <c r="N620">
-        <v>50</v>
-      </c>
-      <c r="O620">
-        <v>50</v>
+      <c r="N620" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O620" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="621" spans="1:15" x14ac:dyDescent="0.2">
@@ -25315,11 +25319,11 @@
         <v>27</v>
       </c>
       <c r="M621" s="3"/>
-      <c r="N621">
-        <v>50</v>
-      </c>
-      <c r="O621">
-        <v>50</v>
+      <c r="N621" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O621" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="622" spans="1:15" x14ac:dyDescent="0.2">
@@ -25475,8 +25479,8 @@
         <v>26</v>
       </c>
       <c r="M625" s="3"/>
-      <c r="N625">
-        <v>100</v>
+      <c r="N625" s="6">
+        <v>1</v>
       </c>
       <c r="O625" s="3"/>
     </row>
@@ -25669,8 +25673,8 @@
       </c>
       <c r="M630" s="3"/>
       <c r="N630" s="3"/>
-      <c r="O630">
-        <v>100</v>
+      <c r="O630" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:15" x14ac:dyDescent="0.2">
@@ -25862,8 +25866,8 @@
       </c>
       <c r="M635" s="3"/>
       <c r="N635" s="3"/>
-      <c r="O635">
-        <v>100</v>
+      <c r="O635" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:15" x14ac:dyDescent="0.2">
@@ -26055,8 +26059,8 @@
       </c>
       <c r="M640" s="3"/>
       <c r="N640" s="3"/>
-      <c r="O640">
-        <v>50</v>
+      <c r="O640" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="641" spans="1:15" x14ac:dyDescent="0.2">
@@ -26098,8 +26102,8 @@
       </c>
       <c r="M641" s="3"/>
       <c r="N641" s="3"/>
-      <c r="O641">
-        <v>50</v>
+      <c r="O641" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="642" spans="1:15" x14ac:dyDescent="0.2">
@@ -26257,8 +26261,8 @@
       </c>
       <c r="M645" s="3"/>
       <c r="N645" s="3"/>
-      <c r="O645">
-        <v>100</v>
+      <c r="O645" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:15" x14ac:dyDescent="0.2">
@@ -26453,11 +26457,11 @@
         <v>26</v>
       </c>
       <c r="M650" s="3"/>
-      <c r="N650">
-        <v>100</v>
-      </c>
-      <c r="O650">
-        <v>100</v>
+      <c r="N650" s="6">
+        <v>1</v>
+      </c>
+      <c r="O650" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:15" x14ac:dyDescent="0.2">
@@ -26647,8 +26651,8 @@
       </c>
       <c r="M655" s="3"/>
       <c r="N655" s="3"/>
-      <c r="O655">
-        <v>100</v>
+      <c r="O655" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:15" x14ac:dyDescent="0.2">
@@ -26840,8 +26844,8 @@
       </c>
       <c r="M660" s="3"/>
       <c r="N660" s="3"/>
-      <c r="O660">
-        <v>50</v>
+      <c r="O660" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="661" spans="1:15" x14ac:dyDescent="0.2">
@@ -26883,8 +26887,8 @@
       </c>
       <c r="M661" s="3"/>
       <c r="N661" s="3"/>
-      <c r="O661">
-        <v>50</v>
+      <c r="O661" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="662" spans="1:15" x14ac:dyDescent="0.2">
@@ -27042,8 +27046,8 @@
       </c>
       <c r="M665" s="3"/>
       <c r="N665" s="3"/>
-      <c r="O665">
-        <v>100</v>
+      <c r="O665" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:15" x14ac:dyDescent="0.2">
@@ -27235,8 +27239,8 @@
       </c>
       <c r="M670" s="3"/>
       <c r="N670" s="3"/>
-      <c r="O670">
-        <v>100</v>
+      <c r="O670" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:15" x14ac:dyDescent="0.2">
@@ -27427,8 +27431,8 @@
         <v>26</v>
       </c>
       <c r="M675" s="3"/>
-      <c r="N675">
-        <v>100</v>
+      <c r="N675" s="6">
+        <v>1</v>
       </c>
       <c r="O675" s="3"/>
     </row>
@@ -27624,11 +27628,11 @@
         <v>26</v>
       </c>
       <c r="M680" s="3"/>
-      <c r="N680">
-        <v>100</v>
-      </c>
-      <c r="O680">
-        <v>100</v>
+      <c r="N680" s="6">
+        <v>1</v>
+      </c>
+      <c r="O680" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:15" x14ac:dyDescent="0.2">
@@ -27818,8 +27822,8 @@
       </c>
       <c r="M685" s="3"/>
       <c r="N685" s="3"/>
-      <c r="O685">
-        <v>100</v>
+      <c r="O685" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:15" x14ac:dyDescent="0.2">
@@ -28014,11 +28018,11 @@
         <v>26</v>
       </c>
       <c r="M690" s="3"/>
-      <c r="N690">
-        <v>50</v>
-      </c>
-      <c r="O690">
-        <v>50</v>
+      <c r="N690" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O690" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="691" spans="1:15" x14ac:dyDescent="0.2">
@@ -28059,11 +28063,11 @@
         <v>27</v>
       </c>
       <c r="M691" s="3"/>
-      <c r="N691">
-        <v>50</v>
-      </c>
-      <c r="O691">
-        <v>50</v>
+      <c r="N691" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O691" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="692" spans="1:15" x14ac:dyDescent="0.2">
